--- a/pred_ohlcv/54/2019-10-11 MITH ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-11 MITH ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -423,9 +428,12 @@
         <v>3840</v>
       </c>
       <c r="G2" t="n">
-        <v>15.96499999999999</v>
+        <v>15.96833333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F3" t="n">
-        <v>16994</v>
+        <v>3840</v>
       </c>
       <c r="G3" t="n">
-        <v>15.95833333333333</v>
+        <v>15.96499999999999</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D4" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E4" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F4" t="n">
-        <v>41800</v>
+        <v>16994</v>
       </c>
       <c r="G4" t="n">
-        <v>15.95499999999999</v>
+        <v>15.95833333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -498,12 +512,15 @@
         <v>15.9</v>
       </c>
       <c r="F5" t="n">
-        <v>3840</v>
+        <v>41800</v>
       </c>
       <c r="G5" t="n">
-        <v>15.95166666666666</v>
+        <v>15.95499999999999</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -524,12 +541,15 @@
         <v>15.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2993.5849</v>
+        <v>3840</v>
       </c>
       <c r="G6" t="n">
-        <v>15.94666666666666</v>
+        <v>15.95166666666666</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D7" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E7" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F7" t="n">
-        <v>32397.9039</v>
+        <v>2993.5849</v>
       </c>
       <c r="G7" t="n">
-        <v>15.93833333333332</v>
+        <v>15.94666666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>32397.9039</v>
       </c>
       <c r="G8" t="n">
-        <v>15.93333333333332</v>
+        <v>15.93833333333332</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E9" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F9" t="n">
-        <v>12318.0584</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>15.92833333333332</v>
+        <v>15.93333333333332</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E10" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F10" t="n">
-        <v>300</v>
+        <v>12318.0584</v>
       </c>
       <c r="G10" t="n">
-        <v>15.92333333333332</v>
+        <v>15.92833333333332</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>15.8</v>
       </c>
       <c r="F11" t="n">
-        <v>543</v>
+        <v>300</v>
       </c>
       <c r="G11" t="n">
-        <v>15.91999999999999</v>
+        <v>15.92333333333332</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,12 +715,15 @@
         <v>15.8</v>
       </c>
       <c r="F12" t="n">
-        <v>9157</v>
+        <v>543</v>
       </c>
       <c r="G12" t="n">
-        <v>15.91666666666665</v>
+        <v>15.91999999999999</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>15.8</v>
       </c>
       <c r="F13" t="n">
-        <v>2683.0271</v>
+        <v>9157</v>
       </c>
       <c r="G13" t="n">
-        <v>15.91333333333332</v>
+        <v>15.91666666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E14" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>2683.0271</v>
       </c>
       <c r="G14" t="n">
-        <v>15.91166666666665</v>
+        <v>15.91333333333332</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E15" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F15" t="n">
-        <v>643.6295</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>15.90666666666665</v>
+        <v>15.91166666666665</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>643.6295</v>
       </c>
       <c r="G16" t="n">
-        <v>15.90499999999998</v>
+        <v>15.90666666666665</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -810,12 +860,15 @@
         <v>15.9</v>
       </c>
       <c r="F17" t="n">
-        <v>32855.5592</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>15.90333333333332</v>
+        <v>15.90499999999998</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,12 +889,15 @@
         <v>15.9</v>
       </c>
       <c r="F18" t="n">
-        <v>160</v>
+        <v>32855.5592</v>
       </c>
       <c r="G18" t="n">
-        <v>15.90166666666665</v>
+        <v>15.90333333333332</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F19" t="n">
-        <v>20329.8113</v>
+        <v>160</v>
       </c>
       <c r="G19" t="n">
         <v>15.90166666666665</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>480.2868</v>
+        <v>20329.8113</v>
       </c>
       <c r="G20" t="n">
-        <v>15.89999999999998</v>
+        <v>15.90166666666665</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>480.2868</v>
       </c>
       <c r="G21" t="n">
         <v>15.89999999999998</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>11555</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
         <v>15.89999999999998</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>3000</v>
+        <v>11555</v>
       </c>
       <c r="G23" t="n">
-        <v>15.89833333333332</v>
+        <v>15.89999999999998</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>15.9</v>
       </c>
       <c r="F24" t="n">
-        <v>29799</v>
+        <v>3000</v>
       </c>
       <c r="G24" t="n">
-        <v>15.89666666666665</v>
+        <v>15.89833333333332</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1018,12 +1092,15 @@
         <v>15.9</v>
       </c>
       <c r="F25" t="n">
-        <v>67500</v>
+        <v>29799</v>
       </c>
       <c r="G25" t="n">
-        <v>15.89333333333331</v>
+        <v>15.89666666666665</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>15.9</v>
       </c>
       <c r="C26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D26" t="n">
         <v>15.9</v>
       </c>
       <c r="E26" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F26" t="n">
-        <v>54300</v>
+        <v>67500</v>
       </c>
       <c r="G26" t="n">
-        <v>15.88999999999998</v>
+        <v>15.89333333333331</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C27" t="n">
         <v>15.8</v>
       </c>
       <c r="D27" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E27" t="n">
         <v>15.8</v>
       </c>
       <c r="F27" t="n">
-        <v>35400</v>
+        <v>54300</v>
       </c>
       <c r="G27" t="n">
-        <v>15.88666666666665</v>
+        <v>15.88999999999998</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>15.8</v>
       </c>
       <c r="C28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D28" t="n">
         <v>15.8</v>
       </c>
       <c r="E28" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F28" t="n">
-        <v>281594.765</v>
+        <v>35400</v>
       </c>
       <c r="G28" t="n">
-        <v>15.88166666666665</v>
+        <v>15.88666666666665</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>15.8</v>
       </c>
       <c r="C29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D29" t="n">
         <v>15.8</v>
       </c>
       <c r="E29" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>39100</v>
+        <v>281594.765</v>
       </c>
       <c r="G29" t="n">
-        <v>15.87833333333331</v>
+        <v>15.88166666666665</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>15.8</v>
       </c>
       <c r="C30" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="D30" t="n">
         <v>15.8</v>
       </c>
       <c r="E30" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F30" t="n">
-        <v>408887</v>
+        <v>39100</v>
       </c>
       <c r="G30" t="n">
-        <v>15.86999999999998</v>
+        <v>15.87833333333331</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C31" t="n">
         <v>15.5</v>
       </c>
       <c r="D31" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E31" t="n">
         <v>15.5</v>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>408887</v>
       </c>
       <c r="G31" t="n">
-        <v>15.86166666666665</v>
+        <v>15.86999999999998</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C32" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="D32" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E32" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G32" t="n">
-        <v>15.85999999999998</v>
+        <v>15.86166666666665</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C33" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="D33" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E33" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="G33" t="n">
-        <v>15.85333333333332</v>
+        <v>15.85999999999998</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C34" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D34" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E34" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F34" t="n">
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="n">
-        <v>15.84499999999998</v>
+        <v>15.85333333333332</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,21 +1373,24 @@
         <v>15.5</v>
       </c>
       <c r="C35" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D35" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E35" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F35" t="n">
-        <v>140726.0343</v>
+        <v>200000</v>
       </c>
       <c r="G35" t="n">
-        <v>15.83499999999998</v>
+        <v>15.84499999999998</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C36" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="D36" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E36" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>140726.0343</v>
       </c>
       <c r="G36" t="n">
-        <v>15.82999999999998</v>
+        <v>15.83499999999998</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="C37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E37" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="F37" t="n">
-        <v>3740.3923</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>15.82166666666665</v>
+        <v>15.82999999999998</v>
       </c>
       <c r="H37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C38" t="n">
         <v>15.4</v>
       </c>
       <c r="D38" t="n">
-        <v>15.7</v>
+        <v>15.4</v>
       </c>
       <c r="E38" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F38" t="n">
-        <v>28907.7419</v>
+        <v>3740.3923</v>
       </c>
       <c r="G38" t="n">
-        <v>15.81333333333331</v>
+        <v>15.82166666666665</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>15.5</v>
       </c>
       <c r="C39" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D39" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="E39" t="n">
         <v>15.3</v>
       </c>
       <c r="F39" t="n">
-        <v>32100</v>
+        <v>28907.7419</v>
       </c>
       <c r="G39" t="n">
-        <v>15.80333333333332</v>
+        <v>15.81333333333331</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>15.5</v>
       </c>
       <c r="C40" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D40" t="n">
         <v>15.5</v>
       </c>
       <c r="E40" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F40" t="n">
-        <v>9900</v>
+        <v>32100</v>
       </c>
       <c r="G40" t="n">
-        <v>15.79666666666665</v>
+        <v>15.80333333333332</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E41" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F41" t="n">
-        <v>4061</v>
+        <v>9900</v>
       </c>
       <c r="G41" t="n">
-        <v>15.78833333333332</v>
+        <v>15.79666666666665</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E42" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F42" t="n">
-        <v>2220</v>
+        <v>4061</v>
       </c>
       <c r="G42" t="n">
-        <v>15.78166666666665</v>
+        <v>15.78833333333332</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1486,12 +1614,15 @@
         <v>15.5</v>
       </c>
       <c r="F43" t="n">
-        <v>4440</v>
+        <v>2220</v>
       </c>
       <c r="G43" t="n">
-        <v>15.77499999999998</v>
+        <v>15.78166666666665</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>15.5</v>
       </c>
       <c r="F44" t="n">
-        <v>3610</v>
+        <v>4440</v>
       </c>
       <c r="G44" t="n">
-        <v>15.76833333333332</v>
+        <v>15.77499999999998</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>15.5</v>
       </c>
       <c r="F45" t="n">
-        <v>14150</v>
+        <v>3610</v>
       </c>
       <c r="G45" t="n">
-        <v>15.76166666666665</v>
+        <v>15.76833333333332</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D46" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="E46" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F46" t="n">
-        <v>16397.0129</v>
+        <v>14150</v>
       </c>
       <c r="G46" t="n">
-        <v>15.75666666666665</v>
+        <v>15.76166666666665</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1584,18 +1724,21 @@
         <v>15.6</v>
       </c>
       <c r="D47" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E47" t="n">
         <v>15.6</v>
       </c>
       <c r="F47" t="n">
-        <v>3330</v>
+        <v>16397.0129</v>
       </c>
       <c r="G47" t="n">
-        <v>15.75166666666665</v>
+        <v>15.75666666666665</v>
       </c>
       <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>71656.3694</v>
+        <v>3330</v>
       </c>
       <c r="G48" t="n">
-        <v>15.74833333333332</v>
+        <v>15.75166666666665</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E49" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>71656.3694</v>
       </c>
       <c r="G49" t="n">
-        <v>15.74333333333332</v>
+        <v>15.74833333333332</v>
       </c>
       <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>15.6</v>
       </c>
       <c r="F50" t="n">
-        <v>64463.9803</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>15.73833333333332</v>
+        <v>15.74333333333332</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>15.6</v>
       </c>
       <c r="C51" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D51" t="n">
         <v>15.6</v>
       </c>
       <c r="E51" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F51" t="n">
-        <v>40332.2837</v>
+        <v>64463.9803</v>
       </c>
       <c r="G51" t="n">
-        <v>15.73166666666665</v>
+        <v>15.73833333333332</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1711,7 +1866,7 @@
         <v>15.6</v>
       </c>
       <c r="C52" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D52" t="n">
         <v>15.6</v>
@@ -1720,12 +1875,15 @@
         <v>15.5</v>
       </c>
       <c r="F52" t="n">
-        <v>9517</v>
+        <v>40332.2837</v>
       </c>
       <c r="G52" t="n">
-        <v>15.72666666666666</v>
+        <v>15.73166666666665</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1743,15 +1901,18 @@
         <v>15.6</v>
       </c>
       <c r="E53" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3096.217948717949</v>
+        <v>9517</v>
       </c>
       <c r="G53" t="n">
-        <v>15.72166666666666</v>
+        <v>15.72666666666666</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C54" t="n">
         <v>15.6</v>
@@ -1769,15 +1930,18 @@
         <v>15.6</v>
       </c>
       <c r="E54" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="F54" t="n">
-        <v>4800</v>
+        <v>3096.217948717949</v>
       </c>
       <c r="G54" t="n">
-        <v>15.71666666666666</v>
+        <v>15.72166666666666</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1789,21 +1953,24 @@
         <v>15.5</v>
       </c>
       <c r="C55" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="D55" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E55" t="n">
         <v>15.5</v>
       </c>
       <c r="F55" t="n">
-        <v>4330</v>
+        <v>4800</v>
       </c>
       <c r="G55" t="n">
-        <v>15.70999999999999</v>
+        <v>15.71666666666666</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>15.5</v>
       </c>
       <c r="F56" t="n">
-        <v>9108.9228</v>
+        <v>4330</v>
       </c>
       <c r="G56" t="n">
-        <v>15.70333333333332</v>
+        <v>15.70999999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1841,21 +2011,24 @@
         <v>15.5</v>
       </c>
       <c r="C57" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D57" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E57" t="n">
         <v>15.5</v>
       </c>
       <c r="F57" t="n">
-        <v>908.782</v>
+        <v>9108.9228</v>
       </c>
       <c r="G57" t="n">
-        <v>15.69833333333333</v>
+        <v>15.70333333333332</v>
       </c>
       <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C58" t="n">
-        <v>15.3</v>
+        <v>15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E58" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="F58" t="n">
-        <v>368444.7464</v>
+        <v>908.782</v>
       </c>
       <c r="G58" t="n">
-        <v>15.68833333333333</v>
+        <v>15.69833333333333</v>
       </c>
       <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>15.4</v>
       </c>
       <c r="C59" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D59" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E59" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F59" t="n">
-        <v>3000</v>
+        <v>368444.7464</v>
       </c>
       <c r="G59" t="n">
-        <v>15.68166666666666</v>
+        <v>15.68833333333333</v>
       </c>
       <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1922,18 +2101,21 @@
         <v>15.5</v>
       </c>
       <c r="D60" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E60" t="n">
         <v>15.4</v>
       </c>
       <c r="F60" t="n">
-        <v>6003</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="n">
-        <v>15.67666666666666</v>
+        <v>15.68166666666666</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>15.4</v>
       </c>
       <c r="C61" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D61" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E61" t="n">
         <v>15.4</v>
       </c>
       <c r="F61" t="n">
-        <v>5470</v>
+        <v>6003</v>
       </c>
       <c r="G61" t="n">
-        <v>15.66833333333333</v>
+        <v>15.67666666666666</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E62" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F62" t="n">
-        <v>9449</v>
+        <v>5470</v>
       </c>
       <c r="G62" t="n">
-        <v>15.66166666666666</v>
+        <v>15.66833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E63" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F63" t="n">
-        <v>300</v>
+        <v>9449</v>
       </c>
       <c r="G63" t="n">
-        <v>15.65666666666666</v>
+        <v>15.66166666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>15.4</v>
       </c>
       <c r="F64" t="n">
-        <v>1420.8441</v>
+        <v>300</v>
       </c>
       <c r="G64" t="n">
-        <v>15.64833333333332</v>
+        <v>15.65666666666666</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>15.4</v>
       </c>
       <c r="F65" t="n">
-        <v>6944.6785</v>
+        <v>1420.8441</v>
       </c>
       <c r="G65" t="n">
-        <v>15.63999999999999</v>
+        <v>15.64833333333332</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>15.4</v>
       </c>
       <c r="F66" t="n">
-        <v>4180</v>
+        <v>6944.6785</v>
       </c>
       <c r="G66" t="n">
-        <v>15.63166666666666</v>
+        <v>15.63999999999999</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E67" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F67" t="n">
-        <v>25248.1116</v>
+        <v>4180</v>
       </c>
       <c r="G67" t="n">
-        <v>15.62499999999999</v>
+        <v>15.63166666666666</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E68" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F68" t="n">
-        <v>11906.6946</v>
+        <v>25248.1116</v>
       </c>
       <c r="G68" t="n">
-        <v>15.61666666666666</v>
+        <v>15.62499999999999</v>
       </c>
       <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2162,12 +2368,15 @@
         <v>15.4</v>
       </c>
       <c r="F69" t="n">
-        <v>11130</v>
+        <v>11906.6946</v>
       </c>
       <c r="G69" t="n">
-        <v>15.61166666666666</v>
+        <v>15.61666666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>15.4</v>
       </c>
       <c r="F70" t="n">
-        <v>98708.18180000001</v>
+        <v>11130</v>
       </c>
       <c r="G70" t="n">
-        <v>15.60499999999999</v>
+        <v>15.61166666666666</v>
       </c>
       <c r="H70" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>15.4</v>
       </c>
       <c r="F71" t="n">
-        <v>20000</v>
+        <v>98708.18180000001</v>
       </c>
       <c r="G71" t="n">
-        <v>15.59833333333332</v>
+        <v>15.60499999999999</v>
       </c>
       <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D72" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E72" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F72" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="G72" t="n">
-        <v>15.58833333333333</v>
+        <v>15.59833333333332</v>
       </c>
       <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,13 +2472,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C73" t="n">
         <v>15.2</v>
       </c>
       <c r="D73" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E73" t="n">
         <v>15.2</v>
@@ -2269,9 +2487,12 @@
         <v>10000</v>
       </c>
       <c r="G73" t="n">
-        <v>15.57833333333333</v>
+        <v>15.58833333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2292,12 +2513,15 @@
         <v>15.2</v>
       </c>
       <c r="F74" t="n">
-        <v>4574.6266</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>15.56666666666666</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>15.2</v>
       </c>
       <c r="F75" t="n">
-        <v>20199.0551</v>
+        <v>4574.6266</v>
       </c>
       <c r="G75" t="n">
-        <v>15.55666666666666</v>
+        <v>15.56666666666666</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,21 +2562,24 @@
         <v>15.2</v>
       </c>
       <c r="C76" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D76" t="n">
         <v>15.2</v>
       </c>
       <c r="E76" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F76" t="n">
-        <v>46896.7168</v>
+        <v>20199.0551</v>
       </c>
       <c r="G76" t="n">
-        <v>15.54333333333333</v>
+        <v>15.55666666666666</v>
       </c>
       <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C77" t="n">
         <v>15.1</v>
       </c>
       <c r="D77" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E77" t="n">
         <v>15.1</v>
       </c>
       <c r="F77" t="n">
-        <v>33798.2198</v>
+        <v>46896.7168</v>
       </c>
       <c r="G77" t="n">
-        <v>15.53</v>
+        <v>15.54333333333333</v>
       </c>
       <c r="H77" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C78" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="D78" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="E78" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F78" t="n">
-        <v>11000</v>
+        <v>33798.2198</v>
       </c>
       <c r="G78" t="n">
-        <v>15.52</v>
+        <v>15.53</v>
       </c>
       <c r="H78" t="n">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C79" t="n">
         <v>15.3</v>
@@ -2419,15 +2655,18 @@
         <v>15.3</v>
       </c>
       <c r="E79" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F79" t="n">
-        <v>70</v>
+        <v>11000</v>
       </c>
       <c r="G79" t="n">
-        <v>15.50833333333333</v>
+        <v>15.52</v>
       </c>
       <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E80" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F80" t="n">
-        <v>25373.5769</v>
+        <v>70</v>
       </c>
       <c r="G80" t="n">
-        <v>15.49666666666666</v>
+        <v>15.50833333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C81" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D81" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E81" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F81" t="n">
-        <v>6000</v>
+        <v>25373.5769</v>
       </c>
       <c r="G81" t="n">
-        <v>15.48666666666666</v>
+        <v>15.49666666666666</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C82" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D82" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E82" t="n">
         <v>15.3</v>
       </c>
       <c r="F82" t="n">
-        <v>30504</v>
+        <v>6000</v>
       </c>
       <c r="G82" t="n">
-        <v>15.475</v>
+        <v>15.48666666666666</v>
       </c>
       <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C83" t="n">
         <v>15.3</v>
       </c>
       <c r="D83" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E83" t="n">
         <v>15.3</v>
       </c>
       <c r="F83" t="n">
-        <v>5760</v>
+        <v>30504</v>
       </c>
       <c r="G83" t="n">
-        <v>15.465</v>
+        <v>15.475</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>15.3</v>
       </c>
       <c r="F84" t="n">
-        <v>13300</v>
+        <v>5760</v>
       </c>
       <c r="G84" t="n">
-        <v>15.45499999999999</v>
+        <v>15.465</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2569,21 +2823,24 @@
         <v>15.3</v>
       </c>
       <c r="C85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D85" t="n">
         <v>15.3</v>
       </c>
       <c r="E85" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F85" t="n">
-        <v>24126.0625</v>
+        <v>13300</v>
       </c>
       <c r="G85" t="n">
-        <v>15.44333333333333</v>
+        <v>15.45499999999999</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2595,21 +2852,24 @@
         <v>15.3</v>
       </c>
       <c r="C86" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D86" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E86" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F86" t="n">
-        <v>20690</v>
+        <v>24126.0625</v>
       </c>
       <c r="G86" t="n">
-        <v>15.435</v>
+        <v>15.44333333333333</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,7 +2881,7 @@
         <v>15.3</v>
       </c>
       <c r="C87" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D87" t="n">
         <v>15.4</v>
@@ -2630,12 +2890,15 @@
         <v>15.3</v>
       </c>
       <c r="F87" t="n">
-        <v>6000</v>
+        <v>20690</v>
       </c>
       <c r="G87" t="n">
-        <v>15.42833333333333</v>
+        <v>15.435</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2907,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C88" t="n">
         <v>15.4</v>
@@ -2653,15 +2916,18 @@
         <v>15.4</v>
       </c>
       <c r="E88" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="G88" t="n">
-        <v>15.42333333333333</v>
+        <v>15.42833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2679,15 +2945,18 @@
         <v>15.4</v>
       </c>
       <c r="E89" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F89" t="n">
-        <v>7010</v>
+        <v>1000</v>
       </c>
       <c r="G89" t="n">
-        <v>15.41666666666666</v>
+        <v>15.42333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2699,21 +2968,24 @@
         <v>15.4</v>
       </c>
       <c r="C90" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D90" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E90" t="n">
         <v>15.3</v>
       </c>
       <c r="F90" t="n">
-        <v>51704</v>
+        <v>7010</v>
       </c>
       <c r="G90" t="n">
         <v>15.41666666666666</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C91" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="D91" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="E91" t="n">
         <v>15.3</v>
       </c>
       <c r="F91" t="n">
-        <v>248596.0028</v>
+        <v>51704</v>
       </c>
       <c r="G91" t="n">
-        <v>15.41333333333333</v>
+        <v>15.41666666666666</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>15.3</v>
       </c>
       <c r="F92" t="n">
-        <v>210400</v>
+        <v>248596.0028</v>
       </c>
       <c r="G92" t="n">
-        <v>15.40666666666666</v>
+        <v>15.41333333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>15.3</v>
       </c>
       <c r="F93" t="n">
-        <v>3600</v>
+        <v>210400</v>
       </c>
       <c r="G93" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>15.3</v>
       </c>
       <c r="F94" t="n">
-        <v>10100</v>
+        <v>3600</v>
       </c>
       <c r="G94" t="n">
-        <v>15.40166666666666</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>15.3</v>
       </c>
       <c r="C95" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D95" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E95" t="n">
         <v>15.3</v>
       </c>
       <c r="F95" t="n">
-        <v>238268</v>
+        <v>10100</v>
       </c>
       <c r="G95" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40166666666666</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,7 +3139,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C96" t="n">
         <v>15.5</v>
@@ -2861,15 +3148,18 @@
         <v>15.5</v>
       </c>
       <c r="E96" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F96" t="n">
-        <v>100</v>
+        <v>238268</v>
       </c>
       <c r="G96" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>15.5</v>
       </c>
       <c r="F97" t="n">
-        <v>2836.7741</v>
+        <v>100</v>
       </c>
       <c r="G97" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>15.5</v>
       </c>
       <c r="F98" t="n">
-        <v>100</v>
+        <v>2836.7741</v>
       </c>
       <c r="G98" t="n">
-        <v>15.40666666666666</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2942,12 +3238,15 @@
         <v>15.5</v>
       </c>
       <c r="F99" t="n">
-        <v>196.2257</v>
+        <v>100</v>
       </c>
       <c r="G99" t="n">
-        <v>15.40999999999999</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>15.5</v>
       </c>
       <c r="F100" t="n">
-        <v>5649.7774</v>
+        <v>196.2257</v>
       </c>
       <c r="G100" t="n">
         <v>15.40999999999999</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E101" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F101" t="n">
-        <v>7113.4629</v>
+        <v>5649.7774</v>
       </c>
       <c r="G101" t="n">
         <v>15.40999999999999</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>15.4</v>
       </c>
       <c r="F102" t="n">
-        <v>3896.103896103896</v>
+        <v>7113.4629</v>
       </c>
       <c r="G102" t="n">
-        <v>15.40833333333333</v>
+        <v>15.40999999999999</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>15.4</v>
       </c>
       <c r="F103" t="n">
-        <v>3672.769</v>
+        <v>3896.103896103896</v>
       </c>
       <c r="G103" t="n">
-        <v>15.40666666666666</v>
+        <v>15.40833333333333</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,7 +3371,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C104" t="n">
         <v>15.4</v>
@@ -3069,15 +3380,18 @@
         <v>15.4</v>
       </c>
       <c r="E104" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F104" t="n">
-        <v>76987</v>
+        <v>3672.769</v>
       </c>
       <c r="G104" t="n">
-        <v>15.40499999999999</v>
+        <v>15.40666666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>15.3</v>
       </c>
       <c r="F105" t="n">
-        <v>95586</v>
+        <v>76987</v>
       </c>
       <c r="G105" t="n">
-        <v>15.40333333333333</v>
+        <v>15.40499999999999</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,7 +3429,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C106" t="n">
         <v>15.4</v>
@@ -3121,15 +3438,18 @@
         <v>15.4</v>
       </c>
       <c r="E106" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F106" t="n">
-        <v>64.93000000000001</v>
+        <v>95586</v>
       </c>
       <c r="G106" t="n">
-        <v>15.39999999999999</v>
+        <v>15.40333333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E107" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F107" t="n">
-        <v>10980.3921</v>
+        <v>64.93000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>15.39499999999999</v>
+        <v>15.39999999999999</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E108" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F108" t="n">
-        <v>5952.8134</v>
+        <v>10980.3921</v>
       </c>
       <c r="G108" t="n">
-        <v>15.38666666666666</v>
+        <v>15.39499999999999</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E109" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F109" t="n">
-        <v>27638.783</v>
+        <v>5952.8134</v>
       </c>
       <c r="G109" t="n">
-        <v>15.38166666666666</v>
+        <v>15.38666666666666</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C110" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D110" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E110" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F110" t="n">
-        <v>64941.8427</v>
+        <v>27638.783</v>
       </c>
       <c r="G110" t="n">
-        <v>15.37833333333332</v>
+        <v>15.38166666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3245,21 +3577,24 @@
         <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D111" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E111" t="n">
         <v>15.2</v>
       </c>
       <c r="F111" t="n">
-        <v>25006.0044</v>
+        <v>64941.8427</v>
       </c>
       <c r="G111" t="n">
-        <v>15.37499999999999</v>
+        <v>15.37833333333332</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3271,21 +3606,24 @@
         <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D112" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E112" t="n">
         <v>15.2</v>
       </c>
-      <c r="E112" t="n">
-        <v>15.1</v>
-      </c>
       <c r="F112" t="n">
-        <v>27619.1752</v>
+        <v>25006.0044</v>
       </c>
       <c r="G112" t="n">
-        <v>15.36666666666665</v>
+        <v>15.37499999999999</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D113" t="n">
         <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F113" t="n">
-        <v>4088.7788</v>
+        <v>27619.1752</v>
       </c>
       <c r="G113" t="n">
-        <v>15.35999999999999</v>
+        <v>15.36666666666665</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E114" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F114" t="n">
-        <v>2570</v>
+        <v>4088.7788</v>
       </c>
       <c r="G114" t="n">
-        <v>15.35499999999999</v>
+        <v>15.35999999999999</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3361,9 +3705,12 @@
         <v>2570</v>
       </c>
       <c r="G115" t="n">
-        <v>15.35166666666665</v>
+        <v>15.35499999999999</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>15.3</v>
       </c>
       <c r="F116" t="n">
-        <v>10280</v>
+        <v>2570</v>
       </c>
       <c r="G116" t="n">
-        <v>15.34833333333332</v>
+        <v>15.35166666666665</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>15.3</v>
       </c>
       <c r="F117" t="n">
-        <v>7710</v>
+        <v>10280</v>
       </c>
       <c r="G117" t="n">
-        <v>15.34333333333332</v>
+        <v>15.34833333333332</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="D118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E118" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="F118" t="n">
-        <v>13914.4243</v>
+        <v>7710</v>
       </c>
       <c r="G118" t="n">
-        <v>15.34166666666665</v>
+        <v>15.34333333333332</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>15.2</v>
       </c>
       <c r="C119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="D119" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E119" t="n">
         <v>15.2</v>
       </c>
       <c r="F119" t="n">
-        <v>7991</v>
+        <v>13914.4243</v>
       </c>
       <c r="G119" t="n">
-        <v>15.33999999999999</v>
+        <v>15.34166666666665</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3835,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="C120" t="n">
         <v>15.4</v>
@@ -3485,15 +3844,18 @@
         <v>15.4</v>
       </c>
       <c r="E120" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="F120" t="n">
-        <v>49900</v>
+        <v>7991</v>
       </c>
       <c r="G120" t="n">
-        <v>15.33833333333332</v>
+        <v>15.33999999999999</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,7 +3864,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C121" t="n">
         <v>15.4</v>
@@ -3511,15 +3873,18 @@
         <v>15.4</v>
       </c>
       <c r="E121" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F121" t="n">
-        <v>70290</v>
+        <v>49900</v>
       </c>
       <c r="G121" t="n">
         <v>15.33833333333332</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,7 +3893,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C122" t="n">
         <v>15.4</v>
@@ -3537,15 +3902,18 @@
         <v>15.4</v>
       </c>
       <c r="E122" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F122" t="n">
-        <v>11245.6235</v>
+        <v>70290</v>
       </c>
       <c r="G122" t="n">
-        <v>15.33666666666665</v>
+        <v>15.33833333333332</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,25 +3922,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C123" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D123" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E123" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="F123" t="n">
-        <v>84896</v>
+        <v>11245.6235</v>
       </c>
       <c r="G123" t="n">
-        <v>15.33333333333332</v>
+        <v>15.33666666666665</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3583,22 +3954,25 @@
         <v>15.3</v>
       </c>
       <c r="C124" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="D124" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="E124" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F124" t="n">
-        <v>147874.7342</v>
+        <v>84896</v>
       </c>
       <c r="G124" t="n">
-        <v>15.33666666666665</v>
+        <v>15.33333333333332</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3606,25 +3980,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="C125" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="D125" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="E125" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="F125" t="n">
-        <v>324.2551</v>
+        <v>147874.7342</v>
       </c>
       <c r="G125" t="n">
         <v>15.33666666666665</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3632,25 +4009,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="C126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="E126" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F126" t="n">
-        <v>12</v>
+        <v>324.2551</v>
       </c>
       <c r="G126" t="n">
-        <v>15.33833333333332</v>
+        <v>15.33666666666665</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3658,25 +4038,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C127" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="D127" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="E127" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F127" t="n">
-        <v>117400</v>
+        <v>12</v>
       </c>
       <c r="G127" t="n">
-        <v>15.34999999999999</v>
+        <v>15.33833333333332</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="C128" t="n">
         <v>16</v>
@@ -3693,16 +4076,19 @@
         <v>16</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="F128" t="n">
-        <v>35874.8625</v>
+        <v>117400</v>
       </c>
       <c r="G128" t="n">
-        <v>15.35999999999999</v>
+        <v>15.34999999999999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3713,22 +4099,25 @@
         <v>16</v>
       </c>
       <c r="C129" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="D129" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="E129" t="n">
         <v>16</v>
       </c>
       <c r="F129" t="n">
-        <v>495210.093</v>
+        <v>35874.8625</v>
       </c>
       <c r="G129" t="n">
-        <v>15.37666666666666</v>
+        <v>15.35999999999999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3736,25 +4125,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>16</v>
+      </c>
+      <c r="C130" t="n">
         <v>16.4</v>
       </c>
-      <c r="C130" t="n">
-        <v>16.5</v>
-      </c>
       <c r="D130" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E130" t="n">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="F130" t="n">
-        <v>214300</v>
+        <v>495210.093</v>
       </c>
       <c r="G130" t="n">
-        <v>15.39499999999999</v>
+        <v>15.37666666666666</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3765,21 +4157,24 @@
         <v>16.4</v>
       </c>
       <c r="C131" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D131" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E131" t="n">
         <v>16.4</v>
       </c>
       <c r="F131" t="n">
-        <v>2789.2987</v>
+        <v>214300</v>
       </c>
       <c r="G131" t="n">
-        <v>15.41166666666666</v>
+        <v>15.39499999999999</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="D132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E132" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="F132" t="n">
-        <v>75400.8023</v>
+        <v>2789.2987</v>
       </c>
       <c r="G132" t="n">
-        <v>15.42833333333332</v>
+        <v>15.41166666666666</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,19 +4218,22 @@
         <v>16.2</v>
       </c>
       <c r="D133" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="E133" t="n">
         <v>16.2</v>
       </c>
       <c r="F133" t="n">
-        <v>21650</v>
+        <v>75400.8023</v>
       </c>
       <c r="G133" t="n">
-        <v>15.44499999999999</v>
+        <v>15.42833333333332</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="C134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D134" t="n">
         <v>16.3</v>
       </c>
       <c r="E134" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F134" t="n">
-        <v>1430</v>
+        <v>21650</v>
       </c>
       <c r="G134" t="n">
-        <v>15.46333333333332</v>
+        <v>15.44499999999999</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3875,15 +4279,18 @@
         <v>16.3</v>
       </c>
       <c r="E135" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F135" t="n">
-        <v>18501.3496</v>
+        <v>1430</v>
       </c>
       <c r="G135" t="n">
-        <v>15.48166666666665</v>
+        <v>15.46333333333332</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,21 +4302,24 @@
         <v>16.3</v>
       </c>
       <c r="C136" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D136" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="E136" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="F136" t="n">
-        <v>22000</v>
+        <v>18501.3496</v>
       </c>
       <c r="G136" t="n">
-        <v>15.50333333333332</v>
+        <v>15.48166666666665</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="C137" t="n">
         <v>16.4</v>
       </c>
-      <c r="C137" t="n">
-        <v>16.5</v>
-      </c>
       <c r="D137" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="E137" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F137" t="n">
-        <v>18480</v>
+        <v>22000</v>
       </c>
       <c r="G137" t="n">
-        <v>15.52666666666665</v>
+        <v>15.50333333333332</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3947,21 +4360,24 @@
         <v>16.4</v>
       </c>
       <c r="C138" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="D138" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="E138" t="n">
         <v>16.4</v>
       </c>
       <c r="F138" t="n">
-        <v>296339.0165</v>
+        <v>18480</v>
       </c>
       <c r="G138" t="n">
-        <v>15.54833333333332</v>
+        <v>15.52666666666665</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C139" t="n">
         <v>16.6</v>
       </c>
-      <c r="C139" t="n">
-        <v>16.7</v>
-      </c>
       <c r="D139" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="E139" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="F139" t="n">
-        <v>66861.5474</v>
+        <v>296339.0165</v>
       </c>
       <c r="G139" t="n">
-        <v>15.57166666666665</v>
+        <v>15.54833333333332</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="C140" t="n">
-        <v>16.3</v>
+        <v>16.7</v>
       </c>
       <c r="D140" t="n">
-        <v>16.5</v>
+        <v>16.7</v>
       </c>
       <c r="E140" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="F140" t="n">
-        <v>66550.8916</v>
+        <v>66861.5474</v>
       </c>
       <c r="G140" t="n">
-        <v>15.58999999999999</v>
+        <v>15.57166666666665</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4025,21 +4447,24 @@
         <v>16.4</v>
       </c>
       <c r="C141" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="D141" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="E141" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="F141" t="n">
-        <v>41176.4646</v>
+        <v>66550.8916</v>
       </c>
       <c r="G141" t="n">
-        <v>15.60666666666665</v>
+        <v>15.58999999999999</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>16.4</v>
       </c>
       <c r="C142" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="D142" t="n">
         <v>16.4</v>
       </c>
       <c r="E142" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="F142" t="n">
-        <v>76606.58530000001</v>
+        <v>41176.4646</v>
       </c>
       <c r="G142" t="n">
-        <v>15.62333333333332</v>
+        <v>15.60666666666665</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="C143" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="D143" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="E143" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="F143" t="n">
-        <v>3086.4197</v>
+        <v>76606.58530000001</v>
       </c>
       <c r="G143" t="n">
-        <v>15.63833333333332</v>
+        <v>15.62333333333332</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="C144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="D144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="E144" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="F144" t="n">
-        <v>486</v>
+        <v>3086.4197</v>
       </c>
       <c r="G144" t="n">
-        <v>15.65166666666665</v>
+        <v>15.63833333333332</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>16.1</v>
       </c>
       <c r="F145" t="n">
-        <v>10000</v>
+        <v>486</v>
       </c>
       <c r="G145" t="n">
-        <v>15.66666666666666</v>
+        <v>15.65166666666665</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4155,541 +4592,24 @@
         <v>16.1</v>
       </c>
       <c r="C146" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D146" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="E146" t="n">
         <v>16.1</v>
       </c>
       <c r="F146" t="n">
-        <v>109859.0309</v>
+        <v>10000</v>
       </c>
       <c r="G146" t="n">
-        <v>15.68166666666666</v>
+        <v>15.66666666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E147" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F147" t="n">
-        <v>14575.4938</v>
-      </c>
-      <c r="G147" t="n">
-        <v>15.69499999999999</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C148" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D148" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E148" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F148" t="n">
-        <v>7129.037</v>
-      </c>
-      <c r="G148" t="n">
-        <v>15.70833333333333</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E149" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F149" t="n">
-        <v>2151.203</v>
-      </c>
-      <c r="G149" t="n">
-        <v>15.72166666666666</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E150" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F150" t="n">
-        <v>200</v>
-      </c>
-      <c r="G150" t="n">
-        <v>15.73166666666666</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E151" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>6930</v>
-      </c>
-      <c r="G151" t="n">
-        <v>15.74666666666666</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F152" t="n">
-        <v>3582.006</v>
-      </c>
-      <c r="G152" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E153" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F153" t="n">
-        <v>29010</v>
-      </c>
-      <c r="G153" t="n">
-        <v>15.775</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E154" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F154" t="n">
-        <v>549.8148</v>
-      </c>
-      <c r="G154" t="n">
-        <v>15.79</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E155" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F155" t="n">
-        <v>16117.2364</v>
-      </c>
-      <c r="G155" t="n">
-        <v>15.80166666666667</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E156" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F156" t="n">
-        <v>4702</v>
-      </c>
-      <c r="G156" t="n">
-        <v>15.81333333333333</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E157" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>28405.5403</v>
-      </c>
-      <c r="G157" t="n">
-        <v>15.82333333333333</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E158" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>15.83333333333334</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E159" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F159" t="n">
-        <v>5040</v>
-      </c>
-      <c r="G159" t="n">
-        <v>15.84333333333334</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E160" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1137</v>
-      </c>
-      <c r="G160" t="n">
-        <v>15.85333333333334</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E161" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F161" t="n">
-        <v>24000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>15.865</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C162" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="D162" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E162" t="n">
-        <v>16</v>
-      </c>
-      <c r="F162" t="n">
-        <v>29904</v>
-      </c>
-      <c r="G162" t="n">
-        <v>15.87833333333334</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E163" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F163" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G163" t="n">
-        <v>15.89000000000001</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="E164" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F164" t="n">
-        <v>247213.2529</v>
-      </c>
-      <c r="G164" t="n">
-        <v>15.90166666666667</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="E165" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F165" t="n">
-        <v>50322.3126</v>
-      </c>
-      <c r="G165" t="n">
-        <v>15.91333333333334</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="D166" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="F166" t="n">
-        <v>157325.8008</v>
-      </c>
-      <c r="G166" t="n">
-        <v>15.92833333333334</v>
-      </c>
-      <c r="H166" t="n">
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
